--- a/31-Models/07_Full_Impute_Boruta_Features/AutoModel/Auto_Model_Comparison.xlsx
+++ b/31-Models/07_Full_Impute_Boruta_Features/AutoModel/Auto_Model_Comparison.xlsx
@@ -127,7 +127,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -304,6 +304,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,25 +330,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,47 +652,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3070,7 +3070,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3079,7 @@
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3096,10 +3096,10 @@
       <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3117,17 +3117,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="17">
         <v>0.63505999999999996</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>0.61924999999999997</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>0.62212999999999996</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>0.63361999999999996</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>0.62212999999999996</v>
       </c>
     </row>

--- a/31-Models/07_Full_Impute_Boruta_Features/AutoModel/Auto_Model_Comparison.xlsx
+++ b/31-Models/07_Full_Impute_Boruta_Features/AutoModel/Auto_Model_Comparison.xlsx
@@ -127,7 +127,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -304,25 +304,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -330,6 +311,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,47 +652,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="18" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3070,7 +3070,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3079,7 @@
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3096,10 +3096,10 @@
       <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3117,17 +3117,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="16">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="21">
         <v>0.63505999999999996</v>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="19">
         <v>0.61924999999999997</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="19">
         <v>0.62212999999999996</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="19">
         <v>0.63361999999999996</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="19">
         <v>0.62212999999999996</v>
       </c>
     </row>
